--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_1.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t>STR</t>
   </si>
@@ -93,33 +93,252 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>10/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r624805082-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>653808</t>
+  </si>
+  <si>
+    <t>624805082</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>Disappointing Marriott Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel wasn’t up to Marriott standards.  Room very small, no place to put clothes, room not cleaned until you call to main desk.  The staff at main desk was best part of stay. No restaurant, no service for platumium members. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r624481943-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>624481943</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>My husband and I came with 4 friends just to hang out. Nice hotel. Friendly staff. Nice bar area with Tvs and a lounge area on the 6th floor. Rooms are small but it's cozy for 2 people. Great location, close to everything (Bourbon St, food, shopping and the casino) and streetcar comes right in front of hotel.  Only a 5 min uber/lyft drive from train/bus station. I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r623918872-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>623918872</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>Treated like Dirt</t>
+  </si>
+  <si>
+    <t>Filled a formal complaint with Marriott against the woman working the late night shift at the front desk. Gave us attitude and yelled at us when asked a simple question. Then cancelled our reservation behind our back and ran the card on file, all at 12:30am. Terrible hotel, atrocious staff and the rooms are no bigger than your cupboard at home. As a near platinum member and a loyal member to the marriott chain a place like this needs to be bulldozed and I know for a fact that this DOES NOT represent your brand.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>KennethJ1545, General Manager at AC Hotel New Orleans Bourbon / French Quarter Area, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>Filled a formal complaint with Marriott against the woman working the late night shift at the front desk. Gave us attitude and yelled at us when asked a simple question. Then cancelled our reservation behind our back and ran the card on file, all at 12:30am. Terrible hotel, atrocious staff and the rooms are no bigger than your cupboard at home. As a near platinum member and a loyal member to the marriott chain a place like this needs to be bulldozed and I know for a fact that this DOES NOT represent your brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r622962737-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>622962737</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>2 Blocks from Bourbon Street - Great Location</t>
+  </si>
+  <si>
+    <t>You can’t beat the location - just a couple blocks to Bourbon street and directly on the streetcar line so you can tour the Garden District. I messed up my reservation, butt the front desk worked tirelessly to accommodate me - excellent service! The rooms are comfortable for two people and you must get a room with a sleeper sofa of you have a third guess. There is limited closet and drawer space. However, all the other amenities are perfect. The hotel has a decent bar and there’s a listing of activities for each week night.The place is great if you’re staying a few days. It costs $16 for a 20 minute airport shuttle ride and the shuttle will pick you up here as well. This is our second time staying here and it’s the perfect place for my wife and I.MoreShow less</t>
+  </si>
+  <si>
+    <t>You can’t beat the location - just a couple blocks to Bourbon street and directly on the streetcar line so you can tour the Garden District. I messed up my reservation, butt the front desk worked tirelessly to accommodate me - excellent service! The rooms are comfortable for two people and you must get a room with a sleeper sofa of you have a third guess. There is limited closet and drawer space. However, all the other amenities are perfect. The hotel has a decent bar and there’s a listing of activities for each week night.The place is great if you’re staying a few days. It costs $16 for a 20 minute airport shuttle ride and the shuttle will pick you up here as well. This is our second time staying here and it’s the perfect place for my wife and I.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r622386467-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>622386467</t>
+  </si>
+  <si>
+    <t>10/05/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Great location, fast walk to the French quarter with helpful front desk workers and staff. They'd be a 5 stars place on my book if it wasn't because their beds are as uncomfortable as they come, we paid for one of the higher end rooms and still woke up in pain every morning. Also, the rooms don't have enough outlets. Awful thing when you are traveling with more than one person. Everyone is on their laptop or tablet trying to get some work done and one person has to be on the bathroom to charge their device because it's the only outlet available other than the one right next to the beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Great location, fast walk to the French quarter with helpful front desk workers and staff. They'd be a 5 stars place on my book if it wasn't because their beds are as uncomfortable as they come, we paid for one of the higher end rooms and still woke up in pain every morning. Also, the rooms don't have enough outlets. Awful thing when you are traveling with more than one person. Everyone is on their laptop or tablet trying to get some work done and one person has to be on the bathroom to charge their device because it's the only outlet available other than the one right next to the beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r621079735-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>621079735</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>Great Location, Easy Walk to the French Quarter</t>
+  </si>
+  <si>
+    <t>Carondelet Street changes to Bourbon Street after it crosses Canal. Easy walk to the French Quarter, Riverfront and sites.  Trolley cars nearby.  $20/day parking available in the Hilton Garden Inn garage just around the corner on Gravier Street.  Friendly hotel staff and clean room. I used Marriott points for my stay, easy mobile check in. Look forward to visting again</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r619487980-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619487980</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t>FRENCH 25</t>
+  </si>
+  <si>
+    <t>Simply the best hospitality that I have ever experienced. The staff was extremely friendly, professional &amp; accommodating; however, my room went a day without housekeeping. The unique design of each room made it feel as if you never entered a room twice...considering that we had nine rooms total. The Roof Top seating area is a nice area to catch a breeze, but would be more enjoyable with an actual view. The location is perfect &amp; would be my hotel of choice on my next visit...highly recommended!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r619477126-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619477126</t>
+  </si>
+  <si>
+    <t>Great Base To Explore This truly Amazing City</t>
+  </si>
+  <si>
+    <t>Just recently returned from two weeks in this unique and amazing city (and that does not do it justice). As we were here for an unusually long time ,(apparently), the hotel accommodation aspect was extremely important.
+Firstly the staff in this hotel cannot do enough for you, any concern, question or issue was attended to immediately and just as importantly with a smile. - The concept of 'Southern Hospitality' really does shine through here, (and the City in general!). 
+Its location is absolutely superb. it is only about 200 yards from Canal Street so in turn only 300 yards from Bourbon St which is directly opposite the end of Carondelet St. - Thus access to the legendary French Quarter is excellent. The plus side of this is that the French Quarter, to state the obvious, is basically 'USA Party central' and can get quite loud, this location is just far enough away to be quiet except for the late night revellers who come back to the rooms rather boisterous at times but that will apply to every hotel in the CBD and FQ anyway for the afore mentioned reason.
+The room we had was very clean and comfortable and the cleaning staff work very hard to keep that way - Many thanks to you all.
+Special mention to the following:-
+Diamond (by name and nature!), Jennifer and everyone on Reception.
+Kia and Priscilla in the Breakfast Room  - (Service with...Just recently returned from two weeks in this unique and amazing city (and that does not do it justice). As we were here for an unusually long time ,(apparently), the hotel accommodation aspect was extremely important.Firstly the staff in this hotel cannot do enough for you, any concern, question or issue was attended to immediately and just as importantly with a smile. - The concept of 'Southern Hospitality' really does shine through here, (and the City in general!). Its location is absolutely superb. it is only about 200 yards from Canal Street so in turn only 300 yards from Bourbon St which is directly opposite the end of Carondelet St. - Thus access to the legendary French Quarter is excellent. The plus side of this is that the French Quarter, to state the obvious, is basically 'USA Party central' and can get quite loud, this location is just far enough away to be quiet except for the late night revellers who come back to the rooms rather boisterous at times but that will apply to every hotel in the CBD and FQ anyway for the afore mentioned reason.The room we had was very clean and comfortable and the cleaning staff work very hard to keep that way - Many thanks to you all.Special mention to the following:-Diamond (by name and nature!), Jennifer and everyone on Reception.Kia and Priscilla in the Breakfast Room  - (Service with a smile at the very highest level.)Grady, Nathanial and the rest of the guys on the 'Door / Lobby' duties - (These Boys work hard like the rest of the staff - much appreciated.)Jeff - 'Hello to the Coolest bartender in Town'Just a few Observations,Our room was very comfortable but sparse concerning wardrobe and cupboard space but just to re-iterate this was rectified immediately by reception who sent up a temporary one with more coat hangers.Suggestion to Management - The Breakfast Buffet was good , (eat as much as you want) and service from the Girls, as implied above was superb, but we think there should be a lower tier i.e. - if you just want cereals and coffee or a bowl of fruit, that option should be priced accordingly. New Orleans Safety:- Apologies to the Hotel, but we feel this will get read about here more than any other of our  reviews that apply to NOLA.After we had booked, we started reading a lot of scare stories about this city. we want to put a few things straight as we feel, having got a feeling for this place, ( actually love to be quite frank), a degree of measured perspective, certainly from our viewpoint needs to be aired. We are from London which like NOLA has its areas and problems just like any other City in the world and just like there are certain places in our capital city which would not be advisable to walk around on your own, particularly after a certain time in the evening, this City is no different.The rule is quite simple here - keep to the areas advised, basically all those which are frequented by Tourists /Visitors as they are well protected by the NOPD and other security related organisations. - We experienced no trouble at all in the following areas Audubon Park Area , Garden City , CBD ( Central Business District) , French Quarter,  City Park  (Section where The  Art Museum is, using the Canal Street car to go through Midtown) and Louis Armstrong Park which is Just over Rampart Street in Treme. We also walked up Poydras as we had tickets for the Saints game at the Superdome - no evidence of problems, just be mindful of 'pickpockets' which applies all over the world where there are crowds.If the boring 'I know where you got your shoes from ..' scam is levelled at you , and it was in FQ several times , ignore it and keep quiet and walk straight ahead - worked for us.Just to wrap up, if you are thinking about visiting this city, stop thinking, just come it is fabulous and this hotel would be not be a bad choice either!MoreShow less</t>
+  </si>
+  <si>
+    <t>Just recently returned from two weeks in this unique and amazing city (and that does not do it justice). As we were here for an unusually long time ,(apparently), the hotel accommodation aspect was extremely important.
+Firstly the staff in this hotel cannot do enough for you, any concern, question or issue was attended to immediately and just as importantly with a smile. - The concept of 'Southern Hospitality' really does shine through here, (and the City in general!). 
+Its location is absolutely superb. it is only about 200 yards from Canal Street so in turn only 300 yards from Bourbon St which is directly opposite the end of Carondelet St. - Thus access to the legendary French Quarter is excellent. The plus side of this is that the French Quarter, to state the obvious, is basically 'USA Party central' and can get quite loud, this location is just far enough away to be quiet except for the late night revellers who come back to the rooms rather boisterous at times but that will apply to every hotel in the CBD and FQ anyway for the afore mentioned reason.
+The room we had was very clean and comfortable and the cleaning staff work very hard to keep that way - Many thanks to you all.
+Special mention to the following:-
+Diamond (by name and nature!), Jennifer and everyone on Reception.
+Kia and Priscilla in the Breakfast Room  - (Service with...Just recently returned from two weeks in this unique and amazing city (and that does not do it justice). As we were here for an unusually long time ,(apparently), the hotel accommodation aspect was extremely important.Firstly the staff in this hotel cannot do enough for you, any concern, question or issue was attended to immediately and just as importantly with a smile. - The concept of 'Southern Hospitality' really does shine through here, (and the City in general!). Its location is absolutely superb. it is only about 200 yards from Canal Street so in turn only 300 yards from Bourbon St which is directly opposite the end of Carondelet St. - Thus access to the legendary French Quarter is excellent. The plus side of this is that the French Quarter, to state the obvious, is basically 'USA Party central' and can get quite loud, this location is just far enough away to be quiet except for the late night revellers who come back to the rooms rather boisterous at times but that will apply to every hotel in the CBD and FQ anyway for the afore mentioned reason.The room we had was very clean and comfortable and the cleaning staff work very hard to keep that way - Many thanks to you all.Special mention to the following:-Diamond (by name and nature!), Jennifer and everyone on Reception.Kia and Priscilla in the Breakfast Room  - (Service with a smile at the very highest level.)Grady, Nathanial and the rest of the guys on the 'Door / Lobby' duties - (These Boys work hard like the rest of the staff - much appreciated.)Jeff - 'Hello to the Coolest bartender in Town'Just a few Observations,Our room was very comfortable but sparse concerning wardrobe and cupboard space but just to re-iterate this was rectified immediately by reception who sent up a temporary one with more coat hangers.Suggestion to Management - The Breakfast Buffet was good , (eat as much as you want) and service from the Girls, as implied above was superb, but we think there should be a lower tier i.e. - if you just want cereals and coffee or a bowl of fruit, that option should be priced accordingly. New Orleans Safety:- Apologies to the Hotel, but we feel this will get read about here more than any other of our  reviews that apply to NOLA.After we had booked, we started reading a lot of scare stories about this city. we want to put a few things straight as we feel, having got a feeling for this place, ( actually love to be quite frank), a degree of measured perspective, certainly from our viewpoint needs to be aired. We are from London which like NOLA has its areas and problems just like any other City in the world and just like there are certain places in our capital city which would not be advisable to walk around on your own, particularly after a certain time in the evening, this City is no different.The rule is quite simple here - keep to the areas advised, basically all those which are frequented by Tourists /Visitors as they are well protected by the NOPD and other security related organisations. - We experienced no trouble at all in the following areas Audubon Park Area , Garden City , CBD ( Central Business District) , French Quarter,  City Park  (Section where The  Art Museum is, using the Canal Street car to go through Midtown) and Louis Armstrong Park which is Just over Rampart Street in Treme. We also walked up Poydras as we had tickets for the Saints game at the Superdome - no evidence of problems, just be mindful of 'pickpockets' which applies all over the world where there are crowds.If the boring 'I know where you got your shoes from ..' scam is levelled at you , and it was in FQ several times , ignore it and keep quiet and walk straight ahead - worked for us.Just to wrap up, if you are thinking about visiting this city, stop thinking, just come it is fabulous and this hotel would be not be a bad choice either!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r619287572-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619287572</t>
+  </si>
+  <si>
+    <t>09/24/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at the AC New Orleans hotel. The check in was hassle free.  I was greeted immediately upon arrival and was promptly checked in. The staff was very friendly and helpful. The room was clean and comfortable. Perks: you tube app on the t.v., cozy and convienent bar/clean linens and towel. I would definitely recommend this hotel on my next visit to the big easy. Other perk, location-cool spots to hit up close by.Thanks again! See you all on my next trip:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r617018699-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>617018699</t>
+  </si>
+  <si>
+    <t>09/16/2018</t>
+  </si>
+  <si>
+    <t>Some good, some bad.</t>
+  </si>
+  <si>
+    <t>This hotel is on Carondelet St, very close to the corner of Canal, which means a short 5 min walk to Bourbon and the French Quarter but a quieter and more peaceful area for sleeping. Location was great. Service very friendly and efficient, especially the front desk, clean rooms and toilets. Parking fee for guests it's really expensive though, and the beds have to be some of the hardest mattress I've ever seen. It didn't allow for much rest because you woke up sore all over. Toilet had troubles flushing while we were there and the rooms were a bit on the smaller side. As a tip, I'll say this hotel is not that good for elderly and disabled guests, since the bed area is separated from the bath and toilet area by 2 steps. Not too inconvenient on principle, but if one gets up during the night in the dark, it could lead to accidents.MoreShow less</t>
+  </si>
+  <si>
+    <t>KennethJ1545, General Manager at AC Hotel New Orleans Bourbon / French Quarter Area, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is on Carondelet St, very close to the corner of Canal, which means a short 5 min walk to Bourbon and the French Quarter but a quieter and more peaceful area for sleeping. Location was great. Service very friendly and efficient, especially the front desk, clean rooms and toilets. Parking fee for guests it's really expensive though, and the beds have to be some of the hardest mattress I've ever seen. It didn't allow for much rest because you woke up sore all over. Toilet had troubles flushing while we were there and the rooms were a bit on the smaller side. As a tip, I'll say this hotel is not that good for elderly and disabled guests, since the bed area is separated from the bath and toilet area by 2 steps. Not too inconvenient on principle, but if one gets up during the night in the dark, it could lead to accidents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r614978621-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614978621</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel. Very Courteous Staff</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Beautiful lobby. It was nice to have a mini fridge in the room. The only downside is there is little to no storage for your clothes and suitcases. Other than that, the rooms are really nice and the bathrooms are nice too.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r614449858-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614449858</t>
+  </si>
+  <si>
     <t>09/06/2018</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r614449858-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
-  </si>
-  <si>
-    <t>60864</t>
-  </si>
-  <si>
-    <t>653808</t>
-  </si>
-  <si>
-    <t>614449858</t>
-  </si>
-  <si>
     <t>Great location for vacation or work</t>
   </si>
   <si>
     <t>4 nights here were very pleasant. Hotel is clean &amp; quiet, equipped with all you might need. Still, there is minimal storage, which could be a problem for longer stays.  Another awkward design: frosted glass frameless bathroom door, which provides less privacy than we’re comfortable with. Very friendly and helpful staff. Valet parking available for ~$37/night, we opted for self-parking garage at the Hilton garden around the corner. ($20/day w in&amp;out privileges)</t>
   </si>
   <si>
-    <t>September 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r611600502-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
   </si>
   <si>
@@ -153,12 +372,6 @@
     <t>Beautiful hotel, the staff was exceptionally friendly and kind!!!! A great location situated in downtown New Orleans!!!! I loved it!!! I only stayed two nights and I wished that I could have stayed much longer!!!</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r611018448-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
   </si>
   <si>
@@ -171,9 +384,6 @@
     <t>The hotel is great and was within walking distance of Bourbon street. Be very cautious while parking in valet as the street is incredibly narrow. The only strange thing about this property was my room didn't have a window. I mean it had a window - but my view was the hallway to my room, no outside view.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d653808-r606884334-AC_Hotel_New_Orleans_Bourbon_French_Quarter_Area-New_Orleans_Louisiana.html</t>
   </si>
   <si>
@@ -219,10 +429,10 @@
     <t>Service very poor. Took two days to get the room cleaned and fresh linens provided.  Small crowded room. No sitting area. No light over the closest area.  Big convention in town, not equipped to handle that type of volume.MoreShow less</t>
   </si>
   <si>
-    <t>Kenneth J, General Manager at AC Hotel New Orleans Bourbon / French Quarter Area, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Kenneth J, General Manager at AC Hotel New Orleans Bourbon / French Quarter Area, responded to this reviewResponded August 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2018</t>
   </si>
   <si>
     <t>Service very poor. Took two days to get the room cleaned and fresh linens provided.  Small crowded room. No sitting area. No light over the closest area.  Big convention in town, not equipped to handle that type of volume.More</t>
@@ -328,9 +538,6 @@
   </si>
   <si>
     <t>We stayed at the AC Hotel in June.  The building is beautifully remodeled and the front desk staff is outstanding.  The only issue we experienced is that 3 days in a row, someone opened our door in the morning, despite the DO NOT DISTURB hanger on our door handle.  After the first time it happened, I purposely made sure that the DO NOT DISTURB was posted correctly on my door.  The next morning, someone tried to open our door AGAIN and when I went to the door to see who it was, the sign had been turned around to display the PLEASE CLEAN THIS ROOM side of the sign.  Same thing happened on the 3rd day however, they didn't even announce that they were housekeeping.  The door just opened.  In my opinion, this is not only unprofessional and disruptive, but I consider it a security issue.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>Kenneth J, General Manager at AC Hotel New Orleans Bourbon / French Quarter Area, responded to this reviewResponded July 26, 2018</t>
@@ -2481,23 +2688,19 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2510,7 +2713,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2526,54 +2729,48 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -2610,13 +2807,13 @@
         <v>44</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2627,10 +2824,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2646,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -2655,45 +2856,39 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +2904,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -2718,33 +2913,33 @@
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -2756,7 +2951,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -2772,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -2781,39 +2976,45 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -2829,7 +3030,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -2838,43 +3039,43 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>67</v>
-      </c>
-      <c r="X8" t="s">
-        <v>68</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2890,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -2899,32 +3100,34 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2935,7 +3138,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2951,7 +3154,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -2960,25 +3163,25 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2989,14 +3192,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
-        <v>81</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -3012,7 +3211,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -3021,39 +3220,47 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
       <c r="Y11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -3069,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -3078,35 +3285,37 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3114,7 +3323,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -3130,7 +3339,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -3139,25 +3348,25 @@
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3171,7 +3380,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -3187,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -3196,41 +3405,43 @@
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>105</v>
-      </c>
-      <c r="X14" t="s">
-        <v>106</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>107</v>
       </c>
@@ -3248,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -3257,43 +3468,39 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -3309,48 +3516,54 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
         <v>115</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -3366,19 +3579,19 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
         <v>119</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>120</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
       </c>
       <c r="K17" t="s">
         <v>121</v>
@@ -3390,17 +3603,23 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -3444,13 +3663,13 @@
         <v>127</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3464,7 +3683,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -3480,34 +3699,34 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>130</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>131</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>132</v>
       </c>
-      <c r="L19" t="s">
-        <v>133</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3518,10 +3737,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>133</v>
+      </c>
+      <c r="X19" t="s">
+        <v>134</v>
+      </c>
       <c r="Y19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
@@ -3537,7 +3760,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -3546,39 +3769,43 @@
         <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3594,7 +3821,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -3603,25 +3830,25 @@
         <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3632,10 +3859,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>146</v>
+      </c>
+      <c r="X21" t="s">
+        <v>147</v>
+      </c>
       <c r="Y21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
@@ -3651,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -3660,25 +3891,25 @@
         <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3692,7 +3923,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -3708,7 +3939,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -3717,37 +3948,35 @@
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3755,7 +3984,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -3771,7 +4000,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -3780,25 +4009,25 @@
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O24" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3812,7 +4041,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
@@ -3828,7 +4057,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -3837,25 +4066,25 @@
         <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3866,10 +4095,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>170</v>
+      </c>
+      <c r="X25" t="s">
+        <v>171</v>
+      </c>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -3885,7 +4118,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -3894,39 +4127,43 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -3942,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -3951,25 +4188,25 @@
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3983,7 +4220,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -3999,7 +4236,7 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -4008,43 +4245,39 @@
         <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
@@ -4060,7 +4293,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -4069,45 +4302,39 @@
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
@@ -4123,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -4132,25 +4359,25 @@
         <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4161,14 +4388,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>192</v>
-      </c>
-      <c r="X30" t="s">
-        <v>193</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31">
@@ -4184,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -4193,47 +4416,39 @@
         <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>200</v>
-      </c>
-      <c r="X31" t="s">
-        <v>201</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
@@ -4249,7 +4464,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -4258,45 +4473,39 @@
         <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="O32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
@@ -4312,7 +4521,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -4321,49 +4530,39 @@
         <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>213</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
         <v>214</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34">
@@ -4379,38 +4578,40 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
         <v>216</v>
       </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>217</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>218</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>219</v>
-      </c>
-      <c r="L34" t="s">
-        <v>220</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="O34" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -4452,19 +4653,23 @@
         <v>223</v>
       </c>
       <c r="J35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" t="s">
         <v>224</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>225</v>
-      </c>
-      <c r="L35" t="s">
-        <v>226</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="N35" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -4477,7 +4682,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
@@ -4493,54 +4698,48 @@
         <v>25</v>
       </c>
       <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="s">
         <v>228</v>
       </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>229</v>
       </c>
-      <c r="J36" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>230</v>
       </c>
-      <c r="L36" t="s">
-        <v>231</v>
-      </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37">
@@ -4556,34 +4755,34 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
         <v>233</v>
       </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K37" t="s">
         <v>234</v>
       </c>
-      <c r="J37" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>235</v>
       </c>
-      <c r="L37" t="s">
-        <v>236</v>
-      </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O37" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4597,7 +4796,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
@@ -4613,34 +4812,34 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" t="s">
         <v>238</v>
       </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>239</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>240</v>
       </c>
-      <c r="K38" t="s">
-        <v>241</v>
-      </c>
-      <c r="L38" t="s">
-        <v>242</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O38" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4654,7 +4853,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
@@ -4670,48 +4869,52 @@
         <v>25</v>
       </c>
       <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s">
         <v>245</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>246</v>
-      </c>
-      <c r="J39" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L39" t="s">
-        <v>249</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O39" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40">
@@ -4727,46 +4930,46 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
         <v>250</v>
       </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>251</v>
       </c>
-      <c r="J40" t="s">
-        <v>252</v>
-      </c>
-      <c r="K40" t="s">
-        <v>253</v>
-      </c>
-      <c r="L40" t="s">
-        <v>254</v>
-      </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4774,7 +4977,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41">
@@ -4790,52 +4993,52 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
         <v>256</v>
       </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" t="s">
-        <v>257</v>
-      </c>
-      <c r="J41" t="s">
-        <v>258</v>
-      </c>
-      <c r="K41" t="s">
-        <v>259</v>
-      </c>
-      <c r="L41" t="s">
-        <v>260</v>
-      </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>257</v>
+      </c>
+      <c r="X41" t="s">
+        <v>258</v>
+      </c>
       <c r="Y41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
@@ -4851,48 +5054,56 @@
         <v>25</v>
       </c>
       <c r="F42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
         <v>261</v>
       </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>262</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>263</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>264</v>
-      </c>
-      <c r="L42" t="s">
-        <v>265</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="O42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>265</v>
+      </c>
+      <c r="X42" t="s">
+        <v>266</v>
+      </c>
       <c r="Y42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
@@ -4908,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -4917,37 +5128,37 @@
         <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O43" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4992,33 +5203,37 @@
         <v>277</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O44" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>278</v>
+      </c>
+      <c r="X44" t="s">
+        <v>279</v>
+      </c>
       <c r="Y44" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
@@ -5034,7 +5249,7 @@
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -5043,32 +5258,32 @@
         <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="O45" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5079,7 +5294,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46">
@@ -5095,7 +5310,7 @@
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -5104,45 +5319,35 @@
         <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J46" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K46" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s">
-        <v>271</v>
-      </c>
-      <c r="O46" t="s">
-        <v>104</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
@@ -5158,46 +5363,46 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
         <v>289</v>
       </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" t="s">
-        <v>290</v>
-      </c>
-      <c r="J47" t="s">
-        <v>291</v>
-      </c>
       <c r="K47" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s">
-        <v>271</v>
-      </c>
-      <c r="O47" t="s">
-        <v>104</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5205,7 +5410,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
@@ -5221,7 +5426,7 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
@@ -5230,45 +5435,39 @@
         <v>28</v>
       </c>
       <c r="I48" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J48" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49">
@@ -5284,7 +5483,7 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -5293,45 +5492,39 @@
         <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O49" t="s">
-        <v>33</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50">
@@ -5347,7 +5540,7 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -5356,25 +5549,25 @@
         <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J50" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K50" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O50" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5385,14 +5578,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>311</v>
-      </c>
-      <c r="X50" t="s">
-        <v>312</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51">
@@ -5408,7 +5597,7 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -5417,47 +5606,45 @@
         <v>28</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O51" t="s">
-        <v>104</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>319</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
         <v>320</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="52">
@@ -5473,58 +5660,52 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
         <v>322</v>
       </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>323</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>324</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>325</v>
       </c>
-      <c r="L52" t="s">
-        <v>326</v>
-      </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="O52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>327</v>
-      </c>
-      <c r="X52" t="s">
-        <v>328</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53">
@@ -5540,52 +5721,48 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>327</v>
+      </c>
+      <c r="J53" t="s">
+        <v>328</v>
+      </c>
+      <c r="K53" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" t="s">
         <v>330</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" t="s">
-        <v>331</v>
-      </c>
-      <c r="J53" t="s">
-        <v>332</v>
-      </c>
-      <c r="K53" t="s">
-        <v>333</v>
-      </c>
-      <c r="L53" t="s">
-        <v>334</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="O53" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+      <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54">
@@ -5601,48 +5778,54 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
+        <v>331</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>332</v>
+      </c>
+      <c r="J54" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" t="s">
+        <v>334</v>
+      </c>
+      <c r="L54" t="s">
         <v>335</v>
       </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
         <v>336</v>
       </c>
-      <c r="J54" t="s">
-        <v>337</v>
-      </c>
-      <c r="K54" t="s">
-        <v>338</v>
-      </c>
-      <c r="L54" t="s">
-        <v>339</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>271</v>
-      </c>
       <c r="O54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55">
@@ -5658,40 +5841,42 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
+        <v>338</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>339</v>
+      </c>
+      <c r="J55" t="s">
         <v>340</v>
       </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>341</v>
       </c>
-      <c r="J55" t="s">
-        <v>337</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>342</v>
       </c>
-      <c r="L55" t="s">
-        <v>343</v>
-      </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O55" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5703,7 +5888,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56">
@@ -5719,46 +5904,44 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>344</v>
+      </c>
+      <c r="J56" t="s">
         <v>345</v>
       </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
+        <v>295</v>
+      </c>
+      <c r="L56" t="s">
         <v>346</v>
-      </c>
-      <c r="J56" t="s">
-        <v>347</v>
-      </c>
-      <c r="K56" t="s">
-        <v>348</v>
-      </c>
-      <c r="L56" t="s">
-        <v>349</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O56" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>4</v>
       </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5766,7 +5949,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
@@ -5782,41 +5965,47 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
+        <v>348</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>349</v>
+      </c>
+      <c r="J57" t="s">
         <v>350</v>
       </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>351</v>
       </c>
-      <c r="J57" t="s">
-        <v>347</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>352</v>
       </c>
-      <c r="L57" t="s">
-        <v>353</v>
-      </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="O57" t="s">
-        <v>243</v>
-      </c>
-      <c r="P57" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
       <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
@@ -5851,32 +6040,34 @@
         <v>355</v>
       </c>
       <c r="J58" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5884,7 +6075,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59">
@@ -5900,7 +6091,7 @@
         <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -5909,43 +6100,45 @@
         <v>28</v>
       </c>
       <c r="I59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>336</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
         <v>3</v>
       </c>
-      <c r="N59" t="s">
-        <v>282</v>
-      </c>
-      <c r="O59" t="s">
-        <v>104</v>
-      </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>364</v>
-      </c>
-      <c r="X59" t="s">
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
         <v>365</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="60">
@@ -5961,50 +6154,54 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
+        <v>366</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
         <v>367</v>
       </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>368</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>369</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>370</v>
       </c>
-      <c r="L60" t="s">
-        <v>371</v>
-      </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O60" t="s">
-        <v>51</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61">
@@ -6020,34 +6217,34 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>372</v>
+      </c>
+      <c r="J61" t="s">
         <v>373</v>
       </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>374</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>375</v>
-      </c>
-      <c r="K61" t="s">
-        <v>376</v>
-      </c>
-      <c r="L61" t="s">
-        <v>377</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O61" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6059,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
+        <v>376</v>
+      </c>
+      <c r="X61" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y61" t="s">
         <v>378</v>
-      </c>
-      <c r="X61" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="62">
@@ -6081,48 +6278,56 @@
         <v>25</v>
       </c>
       <c r="F62" t="s">
+        <v>379</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" t="s">
         <v>381</v>
       </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>382</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>383</v>
       </c>
-      <c r="K62" t="s">
-        <v>384</v>
-      </c>
-      <c r="L62" t="s">
-        <v>385</v>
-      </c>
       <c r="M62" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>336</v>
+      </c>
+      <c r="O62" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
+        <v>384</v>
+      </c>
+      <c r="X62" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y62" t="s">
         <v>386</v>
-      </c>
-      <c r="X62" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="63">
@@ -6138,44 +6343,58 @@
         <v>25</v>
       </c>
       <c r="F63" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>388</v>
+      </c>
+      <c r="J63" t="s">
         <v>389</v>
       </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>390</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>391</v>
       </c>
-      <c r="K63" t="s">
-        <v>392</v>
-      </c>
-      <c r="L63" t="s">
-        <v>393</v>
-      </c>
       <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>347</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
       <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>392</v>
+      </c>
+      <c r="X63" t="s">
+        <v>393</v>
+      </c>
       <c r="Y63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64">
@@ -6191,7 +6410,7 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -6200,37 +6419,35 @@
         <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J64" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K64" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6238,7 +6455,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65">
@@ -6254,7 +6471,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
@@ -6263,43 +6480,39 @@
         <v>28</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J65" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K65" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O65" t="s">
-        <v>51</v>
-      </c>
-      <c r="P65" t="n">
-        <v>3</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>4</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66">
@@ -6315,7 +6528,7 @@
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -6324,10 +6537,10 @@
         <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J66" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K66" t="s">
         <v>407</v>
@@ -6336,22 +6549,20 @@
         <v>408</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O66" t="s">
-        <v>33</v>
-      </c>
-      <c r="P66" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
       <c r="Q66" t="s"/>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
         <v>5</v>
@@ -6399,20 +6610,26 @@
         <v>414</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O67" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
       <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
@@ -6459,10 +6676,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O68" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6504,34 +6721,32 @@
         <v>420</v>
       </c>
       <c r="J69" t="s">
+        <v>412</v>
+      </c>
+      <c r="K69" t="s">
         <v>421</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>422</v>
       </c>
-      <c r="L69" t="s">
-        <v>423</v>
-      </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O69" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="s"/>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
+      <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6576,13 +6791,13 @@
         <v>428</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O70" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6593,10 +6808,14 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>429</v>
+      </c>
+      <c r="X70" t="s">
+        <v>430</v>
+      </c>
       <c r="Y70" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71">
@@ -6612,7 +6831,7 @@
         <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
@@ -6621,28 +6840,30 @@
         <v>28</v>
       </c>
       <c r="I71" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J71" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K71" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O71" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
       <c r="R71" t="s"/>
       <c r="S71" t="s"/>
       <c r="T71" t="s"/>
@@ -6650,12 +6871,8 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>435</v>
-      </c>
-      <c r="X71" t="s">
-        <v>436</v>
-      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
       <c r="Y71" t="s">
         <v>437</v>
       </c>
@@ -6685,22 +6902,22 @@
         <v>439</v>
       </c>
       <c r="J72" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K72" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L72" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="O72" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6711,10 +6928,14 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>443</v>
+      </c>
+      <c r="X72" t="s">
+        <v>444</v>
+      </c>
       <c r="Y72" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73">
@@ -6730,7 +6951,7 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
@@ -6739,26 +6960,22 @@
         <v>28</v>
       </c>
       <c r="I73" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="J73" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K73" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
-      </c>
-      <c r="N73" t="s">
-        <v>282</v>
-      </c>
-      <c r="O73" t="s">
-        <v>51</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
@@ -6769,13 +6986,13 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="X73" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Y73" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
@@ -6791,7 +7008,7 @@
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
@@ -6800,19 +7017,19 @@
         <v>28</v>
       </c>
       <c r="I74" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J74" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K74" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s"/>
       <c r="O74" t="s"/>
@@ -6825,14 +7042,10 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
-        <v>455</v>
-      </c>
-      <c r="X74" t="s">
-        <v>456</v>
-      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75">
@@ -6848,7 +7061,7 @@
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -6857,10 +7070,10 @@
         <v>28</v>
       </c>
       <c r="I75" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J75" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s">
         <v>461</v>
@@ -6869,20 +7082,26 @@
         <v>462</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O75" t="s">
-        <v>46</v>
-      </c>
-      <c r="P75" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
       <c r="Q75" t="s"/>
       <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
       <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
@@ -6926,31 +7145,31 @@
         <v>467</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O76" t="s">
-        <v>46</v>
-      </c>
-      <c r="P76" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
       <c r="Q76" t="s"/>
       <c r="R76" t="s"/>
       <c r="S76" t="s"/>
       <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
         <v>468</v>
-      </c>
-      <c r="X76" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="77">
@@ -6966,46 +7185,46 @@
         <v>25</v>
       </c>
       <c r="F77" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>470</v>
+      </c>
+      <c r="J77" t="s">
         <v>471</v>
       </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
         <v>472</v>
-      </c>
-      <c r="J77" t="s">
-        <v>465</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
       </c>
       <c r="L77" t="s">
         <v>473</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O77" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
-      <c r="R77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
       <c r="S77" t="n">
         <v>5</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -7013,7 +7232,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
@@ -7029,7 +7248,7 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
@@ -7038,22 +7257,26 @@
         <v>28</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
-      </c>
-      <c r="N78" t="s"/>
-      <c r="O78" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>347</v>
+      </c>
+      <c r="O78" t="s">
+        <v>68</v>
+      </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
       <c r="R78" t="s"/>
@@ -7063,14 +7286,10 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
         <v>479</v>
-      </c>
-      <c r="X78" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="79">
@@ -7086,54 +7305,48 @@
         <v>25</v>
       </c>
       <c r="F79" t="s">
+        <v>480</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>481</v>
+      </c>
+      <c r="J79" t="s">
+        <v>477</v>
+      </c>
+      <c r="K79" t="s">
         <v>482</v>
       </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>483</v>
       </c>
-      <c r="J79" t="s">
-        <v>484</v>
-      </c>
-      <c r="K79" t="s">
-        <v>485</v>
-      </c>
-      <c r="L79" t="s">
-        <v>486</v>
-      </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O79" t="s">
-        <v>33</v>
-      </c>
-      <c r="P79" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
       <c r="R79" t="s"/>
       <c r="S79" t="s"/>
       <c r="T79" t="s"/>
-      <c r="U79" t="n">
-        <v>5</v>
-      </c>
+      <c r="U79" t="s"/>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80">
@@ -7149,52 +7362,54 @@
         <v>25</v>
       </c>
       <c r="F80" t="s">
+        <v>484</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>485</v>
+      </c>
+      <c r="J80" t="s">
+        <v>486</v>
+      </c>
+      <c r="K80" t="s">
         <v>487</v>
       </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="L80" t="s">
         <v>488</v>
       </c>
-      <c r="J80" t="s">
-        <v>489</v>
-      </c>
-      <c r="K80" t="s">
-        <v>490</v>
-      </c>
-      <c r="L80" t="s">
-        <v>491</v>
-      </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O80" t="s">
-        <v>33</v>
-      </c>
-      <c r="P80" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
       <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
       <c r="S80" t="s"/>
       <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s">
-        <v>492</v>
-      </c>
-      <c r="X80" t="s">
-        <v>493</v>
-      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81">
@@ -7210,7 +7425,7 @@
         <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
@@ -7219,25 +7434,25 @@
         <v>28</v>
       </c>
       <c r="I81" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J81" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K81" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L81" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O81" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7248,14 +7463,10 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s">
-        <v>499</v>
-      </c>
-      <c r="X81" t="s">
-        <v>500</v>
-      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82">
@@ -7271,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G82" t="s">
         <v>27</v>
@@ -7280,45 +7491,43 @@
         <v>28</v>
       </c>
       <c r="I82" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J82" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K82" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L82" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="O82" t="s">
-        <v>51</v>
-      </c>
-      <c r="P82" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
       <c r="R82" t="s"/>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="n">
-        <v>5</v>
-      </c>
+      <c r="U82" t="s"/>
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
+      <c r="W82" t="s">
+        <v>500</v>
+      </c>
+      <c r="X82" t="s">
+        <v>501</v>
+      </c>
       <c r="Y82" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83">
@@ -7334,7 +7543,7 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -7343,45 +7552,39 @@
         <v>28</v>
       </c>
       <c r="I83" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J83" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L83" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>513</v>
+        <v>347</v>
       </c>
       <c r="O83" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P83" t="s"/>
-      <c r="Q83" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q83" t="s"/>
       <c r="R83" t="s"/>
-      <c r="S83" t="n">
-        <v>5</v>
-      </c>
+      <c r="S83" t="s"/>
       <c r="T83" t="s"/>
-      <c r="U83" t="n">
-        <v>5</v>
-      </c>
+      <c r="U83" t="s"/>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84">
@@ -7397,7 +7600,7 @@
         <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
@@ -7406,25 +7609,25 @@
         <v>28</v>
       </c>
       <c r="I84" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J84" t="s">
+        <v>509</v>
+      </c>
+      <c r="K84" t="s">
         <v>510</v>
       </c>
-      <c r="K84" t="s">
-        <v>516</v>
-      </c>
       <c r="L84" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>513</v>
+        <v>347</v>
       </c>
       <c r="O84" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7436,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="X84" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Y84" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85">
@@ -7458,7 +7661,7 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -7467,45 +7670,39 @@
         <v>28</v>
       </c>
       <c r="I85" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J85" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L85" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" t="s">
-        <v>513</v>
-      </c>
-      <c r="O85" t="s">
-        <v>104</v>
-      </c>
-      <c r="P85" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
-      <c r="R85" t="n">
-        <v>5</v>
-      </c>
+      <c r="R85" t="s"/>
       <c r="S85" t="s"/>
       <c r="T85" t="s"/>
-      <c r="U85" t="n">
-        <v>5</v>
-      </c>
+      <c r="U85" t="s"/>
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
+      <c r="W85" t="s">
+        <v>520</v>
+      </c>
+      <c r="X85" t="s">
+        <v>521</v>
+      </c>
       <c r="Y85" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86">
@@ -7521,34 +7718,34 @@
         <v>25</v>
       </c>
       <c r="F86" t="s">
+        <v>523</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>524</v>
+      </c>
+      <c r="J86" t="s">
+        <v>525</v>
+      </c>
+      <c r="K86" t="s">
         <v>526</v>
       </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="L86" t="s">
         <v>527</v>
       </c>
-      <c r="J86" t="s">
-        <v>528</v>
-      </c>
-      <c r="K86" t="s">
-        <v>529</v>
-      </c>
-      <c r="L86" t="s">
-        <v>530</v>
-      </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O86" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -7562,7 +7759,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87">
@@ -7578,34 +7775,34 @@
         <v>25</v>
       </c>
       <c r="F87" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>529</v>
+      </c>
+      <c r="J87" t="s">
+        <v>530</v>
+      </c>
+      <c r="K87" t="s">
+        <v>531</v>
+      </c>
+      <c r="L87" t="s">
         <v>532</v>
       </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" t="s">
-        <v>533</v>
-      </c>
-      <c r="J87" t="s">
-        <v>534</v>
-      </c>
-      <c r="K87" t="s">
-        <v>535</v>
-      </c>
-      <c r="L87" t="s">
-        <v>536</v>
-      </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O87" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -7616,10 +7813,14 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
+      <c r="W87" t="s">
+        <v>533</v>
+      </c>
+      <c r="X87" t="s">
+        <v>534</v>
+      </c>
       <c r="Y87" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88">
@@ -7635,48 +7836,54 @@
         <v>25</v>
       </c>
       <c r="F88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
         <v>537</v>
       </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
+        <v>530</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
         <v>538</v>
-      </c>
-      <c r="J88" t="s">
-        <v>539</v>
-      </c>
-      <c r="K88" t="s">
-        <v>540</v>
-      </c>
-      <c r="L88" t="s">
-        <v>541</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O88" t="s">
-        <v>46</v>
-      </c>
-      <c r="P88" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
       <c r="Q88" t="s"/>
       <c r="R88" t="s"/>
-      <c r="S88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
       <c r="T88" t="s"/>
-      <c r="U88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
       <c r="V88" t="n">
         <v>0</v>
       </c>
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89">
@@ -7692,35 +7899,31 @@
         <v>25</v>
       </c>
       <c r="F89" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>540</v>
+      </c>
+      <c r="J89" t="s">
+        <v>541</v>
+      </c>
+      <c r="K89" t="s">
+        <v>542</v>
+      </c>
+      <c r="L89" t="s">
         <v>543</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" t="s">
-        <v>544</v>
-      </c>
-      <c r="J89" t="s">
-        <v>539</v>
-      </c>
-      <c r="K89" t="s">
-        <v>545</v>
-      </c>
-      <c r="L89" t="s">
-        <v>546</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
-      <c r="N89" t="s">
-        <v>513</v>
-      </c>
-      <c r="O89" t="s">
-        <v>104</v>
-      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
       <c r="R89" t="s"/>
@@ -7731,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="X89" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Y89" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90">
@@ -7753,48 +7956,54 @@
         <v>25</v>
       </c>
       <c r="F90" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>548</v>
+      </c>
+      <c r="J90" t="s">
+        <v>549</v>
+      </c>
+      <c r="K90" t="s">
         <v>550</v>
       </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="L90" t="s">
         <v>551</v>
       </c>
-      <c r="J90" t="s">
-        <v>539</v>
-      </c>
-      <c r="K90" t="s">
-        <v>552</v>
-      </c>
-      <c r="L90" t="s">
-        <v>553</v>
-      </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O90" t="s">
-        <v>104</v>
-      </c>
-      <c r="P90" t="s"/>
-      <c r="Q90" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
       <c r="R90" t="s"/>
       <c r="S90" t="s"/>
       <c r="T90" t="s"/>
-      <c r="U90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
       <c r="V90" t="n">
         <v>0</v>
       </c>
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91">
@@ -7810,34 +8019,34 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
+        <v>552</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>553</v>
+      </c>
+      <c r="J91" t="s">
         <v>554</v>
       </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>555</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>556</v>
       </c>
-      <c r="K91" t="s">
-        <v>557</v>
-      </c>
-      <c r="L91" t="s">
-        <v>558</v>
-      </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O91" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -7848,10 +8057,14 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
+      <c r="W91" t="s">
+        <v>557</v>
+      </c>
+      <c r="X91" t="s">
+        <v>558</v>
+      </c>
       <c r="Y91" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92">
@@ -7867,7 +8080,7 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G92" t="s">
         <v>27</v>
@@ -7876,10 +8089,10 @@
         <v>28</v>
       </c>
       <c r="I92" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J92" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K92" t="s">
         <v>562</v>
@@ -7888,13 +8101,13 @@
         <v>563</v>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O92" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -7940,36 +8153,42 @@
         <v>568</v>
       </c>
       <c r="J93" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K93" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L93" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>513</v>
+        <v>178</v>
       </c>
       <c r="O93" t="s">
-        <v>33</v>
-      </c>
-      <c r="P93" t="s"/>
-      <c r="Q93" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
       <c r="R93" t="s"/>
       <c r="S93" t="s"/>
       <c r="T93" t="s"/>
-      <c r="U93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
       <c r="V93" t="n">
         <v>0</v>
       </c>
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
@@ -7985,7 +8204,7 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G94" t="s">
         <v>27</v>
@@ -7994,37 +8213,37 @@
         <v>28</v>
       </c>
       <c r="I94" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J94" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K94" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L94" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O94" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="n">
-        <v>4</v>
-      </c>
-      <c r="R94" t="n">
-        <v>5</v>
-      </c>
-      <c r="S94" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
       <c r="T94" t="s"/>
       <c r="U94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -8032,7 +8251,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95">
@@ -8048,7 +8267,7 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
@@ -8057,25 +8276,25 @@
         <v>28</v>
       </c>
       <c r="I95" t="s">
+        <v>580</v>
+      </c>
+      <c r="J95" t="s">
+        <v>575</v>
+      </c>
+      <c r="K95" t="s">
+        <v>581</v>
+      </c>
+      <c r="L95" t="s">
+        <v>582</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
         <v>578</v>
       </c>
-      <c r="J95" t="s">
-        <v>579</v>
-      </c>
-      <c r="K95" t="s">
-        <v>580</v>
-      </c>
-      <c r="L95" t="s">
-        <v>581</v>
-      </c>
-      <c r="M95" t="n">
-        <v>4</v>
-      </c>
-      <c r="N95" t="s">
-        <v>513</v>
-      </c>
       <c r="O95" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8086,10 +8305,14 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
+      <c r="W95" t="s">
+        <v>583</v>
+      </c>
+      <c r="X95" t="s">
+        <v>584</v>
+      </c>
       <c r="Y95" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96">
@@ -8105,7 +8328,7 @@
         <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G96" t="s">
         <v>27</v>
@@ -8114,39 +8337,45 @@
         <v>28</v>
       </c>
       <c r="I96" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J96" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K96" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L96" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="O96" t="s">
-        <v>104</v>
-      </c>
-      <c r="P96" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
       <c r="Q96" t="s"/>
-      <c r="R96" t="s"/>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
       <c r="S96" t="s"/>
       <c r="T96" t="s"/>
-      <c r="U96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
       <c r="V96" t="n">
         <v>0</v>
       </c>
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97">
@@ -8162,7 +8391,7 @@
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
@@ -8171,25 +8400,25 @@
         <v>28</v>
       </c>
       <c r="I97" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J97" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="K97" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L97" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -8200,14 +8429,10 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s">
-        <v>592</v>
-      </c>
-      <c r="X97" t="s">
-        <v>593</v>
-      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="98">
@@ -8223,7 +8448,7 @@
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G98" t="s">
         <v>27</v>
@@ -8232,25 +8457,25 @@
         <v>28</v>
       </c>
       <c r="I98" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J98" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K98" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L98" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="O98" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -8264,7 +8489,7 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99">
@@ -8280,7 +8505,7 @@
         <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G99" t="s">
         <v>27</v>
@@ -8289,25 +8514,25 @@
         <v>28</v>
       </c>
       <c r="I99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K99" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L99" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="O99" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -8321,7 +8546,7 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100">
@@ -8337,7 +8562,7 @@
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G100" t="s">
         <v>27</v>
@@ -8346,49 +8571,43 @@
         <v>28</v>
       </c>
       <c r="I100" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J100" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K100" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L100" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="O100" t="s">
-        <v>46</v>
-      </c>
-      <c r="P100" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
       <c r="R100" t="s"/>
       <c r="S100" t="s"/>
       <c r="T100" t="s"/>
-      <c r="U100" t="n">
-        <v>3</v>
-      </c>
+      <c r="U100" t="s"/>
       <c r="V100" t="n">
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="X100" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y100" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101">
@@ -8404,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
@@ -8413,10 +8632,10 @@
         <v>28</v>
       </c>
       <c r="I101" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J101" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="K101" t="s">
         <v>617</v>
@@ -8428,10 +8647,10 @@
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O101" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -8482,13 +8701,13 @@
         <v>623</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -8499,14 +8718,10 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s">
-        <v>624</v>
-      </c>
-      <c r="X102" t="s">
-        <v>625</v>
-      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103">
@@ -8522,54 +8737,52 @@
         <v>25</v>
       </c>
       <c r="F103" t="s">
+        <v>624</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>625</v>
+      </c>
+      <c r="J103" t="s">
+        <v>626</v>
+      </c>
+      <c r="K103" t="s">
         <v>627</v>
       </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s">
-        <v>28</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="L103" t="s">
         <v>628</v>
       </c>
-      <c r="J103" t="s">
-        <v>629</v>
-      </c>
-      <c r="K103" t="s">
-        <v>630</v>
-      </c>
-      <c r="L103" t="s">
-        <v>631</v>
-      </c>
       <c r="M103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="O103" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
-      <c r="R103" t="n">
-        <v>4</v>
-      </c>
-      <c r="S103" t="n">
-        <v>5</v>
-      </c>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
       <c r="T103" t="s"/>
-      <c r="U103" t="n">
-        <v>4</v>
-      </c>
+      <c r="U103" t="s"/>
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
+      <c r="W103" t="s">
+        <v>629</v>
+      </c>
+      <c r="X103" t="s">
+        <v>630</v>
+      </c>
       <c r="Y103" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104">
@@ -8585,56 +8798,713 @@
         <v>25</v>
       </c>
       <c r="F104" t="s">
+        <v>632</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
         <v>633</v>
       </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
+        <v>626</v>
+      </c>
+      <c r="K104" t="s">
         <v>634</v>
       </c>
-      <c r="J104" t="s">
+      <c r="L104" t="s">
         <v>635</v>
       </c>
-      <c r="K104" t="s">
-        <v>636</v>
-      </c>
-      <c r="L104" t="s">
-        <v>637</v>
-      </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="O104" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
-      <c r="R104" t="n">
-        <v>4</v>
-      </c>
+      <c r="R104" t="s"/>
       <c r="S104" t="s"/>
       <c r="T104" t="s"/>
-      <c r="U104" t="n">
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>636</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
+        <v>637</v>
+      </c>
+      <c r="J105" t="s">
+        <v>638</v>
+      </c>
+      <c r="K105" t="s">
+        <v>639</v>
+      </c>
+      <c r="L105" t="s">
+        <v>640</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>578</v>
+      </c>
+      <c r="O105" t="s">
+        <v>61</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>642</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>643</v>
+      </c>
+      <c r="J106" t="s">
+        <v>644</v>
+      </c>
+      <c r="K106" t="s">
+        <v>645</v>
+      </c>
+      <c r="L106" t="s">
+        <v>646</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>578</v>
+      </c>
+      <c r="O106" t="s">
+        <v>39</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>647</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>648</v>
+      </c>
+      <c r="J107" t="s">
+        <v>649</v>
+      </c>
+      <c r="K107" t="s">
+        <v>650</v>
+      </c>
+      <c r="L107" t="s">
+        <v>651</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>652</v>
+      </c>
+      <c r="O107" t="s">
+        <v>45</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>653</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s">
+        <v>654</v>
+      </c>
+      <c r="J108" t="s">
+        <v>649</v>
+      </c>
+      <c r="K108" t="s">
+        <v>655</v>
+      </c>
+      <c r="L108" t="s">
+        <v>656</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>578</v>
+      </c>
+      <c r="O108" t="s">
+        <v>68</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>657</v>
+      </c>
+      <c r="X108" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>660</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s">
+        <v>661</v>
+      </c>
+      <c r="J109" t="s">
+        <v>662</v>
+      </c>
+      <c r="K109" t="s">
+        <v>663</v>
+      </c>
+      <c r="L109" t="s">
+        <v>664</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>665</v>
+      </c>
+      <c r="O109" t="s">
+        <v>45</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>666</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s">
+        <v>667</v>
+      </c>
+      <c r="J110" t="s">
+        <v>668</v>
+      </c>
+      <c r="K110" t="s">
+        <v>669</v>
+      </c>
+      <c r="L110" t="s">
+        <v>670</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>652</v>
+      </c>
+      <c r="O110" t="s">
+        <v>68</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>672</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s">
+        <v>673</v>
+      </c>
+      <c r="J111" t="s">
+        <v>668</v>
+      </c>
+      <c r="K111" t="s">
+        <v>674</v>
+      </c>
+      <c r="L111" t="s">
+        <v>675</v>
+      </c>
+      <c r="M111" t="n">
         <v>2</v>
       </c>
-      <c r="V104" t="n">
-        <v>0</v>
-      </c>
-      <c r="W104" t="s">
-        <v>638</v>
-      </c>
-      <c r="X104" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>640</v>
+      <c r="N111" t="s">
+        <v>652</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>676</v>
+      </c>
+      <c r="X111" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>679</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" t="s">
+        <v>680</v>
+      </c>
+      <c r="J112" t="s">
+        <v>681</v>
+      </c>
+      <c r="K112" t="s">
+        <v>682</v>
+      </c>
+      <c r="L112" t="s">
+        <v>683</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>578</v>
+      </c>
+      <c r="O112" t="s">
+        <v>39</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>684</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>685</v>
+      </c>
+      <c r="J113" t="s">
+        <v>686</v>
+      </c>
+      <c r="K113" t="s">
+        <v>687</v>
+      </c>
+      <c r="L113" t="s">
+        <v>688</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>578</v>
+      </c>
+      <c r="O113" t="s">
+        <v>68</v>
+      </c>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>689</v>
+      </c>
+      <c r="X113" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>692</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" t="s">
+        <v>693</v>
+      </c>
+      <c r="J114" t="s">
+        <v>694</v>
+      </c>
+      <c r="K114" t="s">
+        <v>695</v>
+      </c>
+      <c r="L114" t="s">
+        <v>696</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>652</v>
+      </c>
+      <c r="O114" t="s">
+        <v>68</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" t="s">
+        <v>698</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s">
+        <v>699</v>
+      </c>
+      <c r="J115" t="s">
+        <v>700</v>
+      </c>
+      <c r="K115" t="s">
+        <v>701</v>
+      </c>
+      <c r="L115" t="s">
+        <v>702</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>665</v>
+      </c>
+      <c r="O115" t="s">
+        <v>45</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>703</v>
+      </c>
+      <c r="X115" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -8659,31 +9529,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>706</v>
       </c>
       <c r="C1" t="s">
-        <v>642</v>
+        <v>707</v>
       </c>
       <c r="D1" t="s">
-        <v>643</v>
+        <v>708</v>
       </c>
       <c r="E1" t="s">
-        <v>644</v>
+        <v>709</v>
       </c>
       <c r="F1" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="G1" t="s">
-        <v>646</v>
+        <v>711</v>
       </c>
       <c r="H1" t="s">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="I1" t="s">
-        <v>648</v>
+        <v>713</v>
       </c>
       <c r="J1" t="s">
-        <v>649</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2">
@@ -8691,31 +9561,31 @@
         <v>44833</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="E2" t="n">
         <v>70130</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>718</v>
       </c>
       <c r="H2" t="s">
-        <v>654</v>
+        <v>719</v>
       </c>
       <c r="I2" t="s">
-        <v>655</v>
+        <v>720</v>
       </c>
       <c r="J2" t="s">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
